--- a/Rapport/Resultats/Comparatif_HOG_morpho.xlsx
+++ b/Rapport/Resultats/Comparatif_HOG_morpho.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDSI\ProjetE-ComptagePersonnes\Rapport\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fond&amp;Pieton" sheetId="1" r:id="rId1"/>
     <sheet name="fondRue&amp;Pieton" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>Test1</t>
   </si>
@@ -67,12 +67,18 @@
   </si>
   <si>
     <t>10 fonds</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,15 +193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,6 +212,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,12 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,7 +273,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4DD87E-F1CA-4F06-B932-DFACF8AEB8A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C4DD87E-F1CA-4F06-B932-DFACF8AEB8A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,11 +318,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Avec le code : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Comparaison_HOG_MORPHO_fond_Pieton.m</a:t>
+            <a:t>Avec le code : Comparaison_HOG_MORPHO_fond_Pieton.m</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -402,7 +404,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D35B8D-F2FE-462F-8207-AE250F2011BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60D35B8D-F2FE-462F-8207-AE250F2011BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -447,11 +449,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Avec le code : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Comparaison_HOG_MORPHO_fond_Pieton.m</a:t>
+            <a:t>Avec le code : Comparaison_HOG_MORPHO_fond_Pieton.m</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -800,196 +798,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="12" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="10">
         <v>100</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="10">
         <v>89.1892</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <v>10.8108</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="7"/>
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="13">
         <v>2.2471999999999999</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="14">
         <v>97.752799999999993</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="13">
         <v>64.044899999999998</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="14">
         <v>35.955100000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="12" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>99.5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>0.5</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="10">
         <v>92.592600000000004</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="11">
         <v>7.4074</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="7"/>
+      <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="14">
         <v>100</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="13">
         <v>63.043500000000002</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="14">
         <v>36.956499999999998</v>
       </c>
     </row>
@@ -1011,207 +1013,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="12" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>100</v>
+      </c>
+      <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16">
+      <c r="J4" s="10">
+        <v>93.877600000000001</v>
+      </c>
+      <c r="K4" s="11">
+        <v>6.1223999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
         <v>100</v>
       </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="16">
-        <v>93.877600000000001</v>
-      </c>
-      <c r="K4" s="17">
-        <v>6.1223999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="E5" s="18" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>100</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="19">
+      <c r="J5" s="13">
         <v>17.647099999999998</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="14">
         <v>82.352900000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="12" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>100</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="10">
         <v>100</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="E13" s="18" t="s">
+      <c r="C13" s="7"/>
+      <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="14">
         <v>100</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="13">
         <v>8.6957000000000004</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="14">
         <v>91.304299999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
